--- a/docs/class_2702.xlsx
+++ b/docs/class_2702.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Memória" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>endereço de ip</t>
   </si>
@@ -34,6 +35,18 @@
   </si>
   <si>
     <t>localhost</t>
+  </si>
+  <si>
+    <t>$iValor</t>
+  </si>
+  <si>
+    <t>$iValor = 10;</t>
+  </si>
+  <si>
+    <t>$V</t>
+  </si>
+  <si>
+    <t>$V[1] = 25;</t>
   </si>
 </sst>
 </file>
@@ -49,15 +62,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -65,12 +90,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1905,7 +1992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E9:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1925,4 +2012,86 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AE14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="1">
+        <v>10</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="3"/>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="12" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1">
+        <v>25</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3"/>
+      <c r="T13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O13:R13"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/class_2702.xlsx
+++ b/docs/class_2702.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Memória" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -148,6 +149,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -157,7 +159,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1701,6 +1702,170 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo de cantos arredondados 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752724" y="952500"/>
+          <a:ext cx="1933575" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1600"/>
+            <a:t>ex4-pag23-form-v2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector angulado 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="3007518" y="1154906"/>
+          <a:ext cx="457200" cy="966788"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -233333"/>
+            <a:gd name="adj2" fmla="val 123645"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector de seta reta 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3719512" y="171450"/>
+          <a:ext cx="4763" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2018,7 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13:J13"/>
     </sheetView>
   </sheetViews>
@@ -2026,19 +2191,19 @@
   <sheetData>
     <row r="2" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>10</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
       <c r="S5" t="s">
         <v>3</v>
       </c>
@@ -2048,24 +2213,24 @@
     </row>
     <row r="7" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="4"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="12" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="1">
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="2">
         <v>25</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4"/>
       <c r="T13" t="s">
         <v>5</v>
       </c>
@@ -2094,4 +2259,19 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/class_2702.xlsx
+++ b/docs/class_2702.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Memória" sheetId="3" r:id="rId3"/>
     <sheet name="Plan3" sheetId="4" r:id="rId4"/>
+    <sheet name="Plan4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>endereço de ip</t>
   </si>
@@ -48,6 +49,78 @@
   </si>
   <si>
     <t>$V[1] = 25;</t>
+  </si>
+  <si>
+    <t>$asLinks = [];</t>
+  </si>
+  <si>
+    <t>cria array vazio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$asLinks[] = [ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               "href"    =&gt; "exercices/ex4-pag23-form.php",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               "target"  =&gt; "_blank",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               "caption" =&gt; "Exercício 4 da pag 23"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ];</t>
+  </si>
+  <si>
+    <t>array vazio</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[href]</t>
+  </si>
+  <si>
+    <t>[target]</t>
+  </si>
+  <si>
+    <t>[caption]</t>
+  </si>
+  <si>
+    <t>exercices/ex4-pag23....</t>
+  </si>
+  <si>
+    <t>_blank</t>
+  </si>
+  <si>
+    <t>Exercício 4...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               "href"    =&gt; "exercices/ex4-pag23-form-v2.php",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               "caption" =&gt; "Exercício 4 da pag 23 (2)"</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>$asLinks</t>
+  </si>
+  <si>
+    <t>[0][target]</t>
+  </si>
+  <si>
+    <t>[0][href]</t>
+  </si>
+  <si>
+    <t>[0][caption]</t>
+  </si>
+  <si>
+    <t>[2]</t>
   </si>
 </sst>
 </file>
@@ -63,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,8 +155,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -143,11 +222,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -159,6 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2265,7 +2360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -2274,4 +2369,157 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/class_2702.xlsx
+++ b/docs/class_2702.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Memória" sheetId="3" r:id="rId3"/>
     <sheet name="Plan3" sheetId="4" r:id="rId4"/>
     <sheet name="Plan4" sheetId="5" r:id="rId5"/>
+    <sheet name="Plan5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>endereço de ip</t>
   </si>
@@ -121,13 +122,22 @@
   </si>
   <si>
     <t>[2]</t>
+  </si>
+  <si>
+    <t>href</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>caption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +145,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +179,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -237,13 +261,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -253,7 +287,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,6 +1271,13 @@
             <a:t>HTML</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>JAVASCRIPT</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1295,15 +1349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1312,7 +1366,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3981450" y="2333625"/>
+          <a:off x="4006850" y="2835275"/>
           <a:ext cx="914400" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1530,9 +1584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1545,7 +1599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3295650" y="1100137"/>
-          <a:ext cx="685800" cy="1443038"/>
+          <a:ext cx="711200" cy="1944688"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -1797,6 +1851,210 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85727</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector em curva 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2192112" y="-551089"/>
+          <a:ext cx="809625" cy="3797753"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 164370"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Retângulo de cantos arredondados 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2520950" y="2406650"/>
+          <a:ext cx="895350" cy="1060450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TEXTO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>html</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>xml</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>json</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>plain text</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector em curva 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="4735966" y="702810"/>
+          <a:ext cx="657225" cy="1137557"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34783"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2252,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E9:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,19 +2544,19 @@
   <sheetData>
     <row r="2" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>10</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5"/>
       <c r="S5" t="s">
         <v>3</v>
       </c>
@@ -2312,20 +2570,20 @@
     </row>
     <row r="12" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="2">
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="3">
         <v>25</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="5"/>
       <c r="T13" t="s">
         <v>5</v>
       </c>
@@ -2375,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,14 +2682,14 @@
       <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="J6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2482,14 +2740,14 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="L12" s="5" t="s">
+      <c r="J12" s="2"/>
+      <c r="L12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2517,9 +2775,220 @@
       <c r="I18" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/class_2702.xlsx
+++ b/docs/class_2702.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Plan3" sheetId="4" r:id="rId4"/>
     <sheet name="Plan4" sheetId="5" r:id="rId5"/>
     <sheet name="Plan5" sheetId="6" r:id="rId6"/>
+    <sheet name="Plan6" sheetId="7" r:id="rId7"/>
+    <sheet name="Plan7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>endereço de ip</t>
   </si>
@@ -131,6 +133,30 @@
   </si>
   <si>
     <t>caption</t>
+  </si>
+  <si>
+    <t>ETHERNET</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>INFINIDADE</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>PROTOCOLOS</t>
   </si>
 </sst>
 </file>
@@ -154,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +208,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,10 +324,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,20 +345,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2198,6 +2252,289 @@
           <a:ext cx="4763" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo de cantos arredondados 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="581025"/>
+          <a:ext cx="1200150" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>arquivo1.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo de cantos arredondados 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="581025"/>
+          <a:ext cx="1200150" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>arquivo2.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo de cantos arredondados 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="581025"/>
+          <a:ext cx="1200150" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>arquivo3.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Retângulo de cantos arredondados 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="2562225"/>
+          <a:ext cx="1200150" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400"/>
+            <a:t>arquivo4.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector em curva 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1457325" y="962025"/>
+          <a:ext cx="971550" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -2544,19 +2881,19 @@
   <sheetData>
     <row r="2" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="3">
+      <c r="N5" s="7">
         <v>10</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9"/>
       <c r="S5" t="s">
         <v>3</v>
       </c>
@@ -2570,20 +2907,20 @@
     </row>
     <row r="12" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="3">
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="7">
         <v>25</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="5"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="9"/>
       <c r="T13" t="s">
         <v>5</v>
       </c>
@@ -2786,201 +3123,201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3">
         <v>0</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="3">
         <v>1</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="F2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="F4" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="10">
         <v>0</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6">
         <v>0</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11">
+      <c r="A10" s="10"/>
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3">
         <v>0</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>2</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="11">
+      <c r="A17" s="10"/>
+      <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="11">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="11">
+      <c r="A19" s="10"/>
+      <c r="B19" s="6">
         <v>2</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2991,4 +3328,118 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/class_2702.xlsx
+++ b/docs/class_2702.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>endereço de ip</t>
   </si>
@@ -157,6 +157,42 @@
   </si>
   <si>
     <t>PROTOCOLOS</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>\0</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>( inteiro de 1 B )</t>
+  </si>
+  <si>
+    <t>href;target;caption</t>
   </si>
 </sst>
 </file>
@@ -336,6 +372,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -351,10 +391,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2871,29 +2907,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AE14"/>
+  <dimension ref="C2:AS22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:J13"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="25" width="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="7">
+      <c r="N5" s="11">
         <v>10</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
       <c r="S5" t="s">
         <v>3</v>
       </c>
@@ -2907,20 +2946,20 @@
     </row>
     <row r="12" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="7">
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="11">
         <v>25</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="9"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13"/>
       <c r="T13" t="s">
         <v>5</v>
       </c>
@@ -2937,6 +2976,138 @@
       </c>
       <c r="O14">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:45" x14ac:dyDescent="0.25">
+      <c r="AP18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="7:45" x14ac:dyDescent="0.25">
+      <c r="G21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+    </row>
+    <row r="22" spans="7:45" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <v>11</v>
+      </c>
+      <c r="S22">
+        <v>12</v>
+      </c>
+      <c r="T22">
+        <v>13</v>
+      </c>
+      <c r="U22">
+        <v>14</v>
+      </c>
+      <c r="V22">
+        <v>15</v>
+      </c>
+      <c r="W22">
+        <v>16</v>
+      </c>
+      <c r="X22">
+        <v>17</v>
+      </c>
+      <c r="Y22">
+        <v>18</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3123,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,7 +3365,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="14">
         <v>0</v>
       </c>
       <c r="B8" s="5"/>
@@ -3207,9 +3378,12 @@
       <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="6">
         <v>0</v>
       </c>
@@ -3218,7 +3392,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="6">
         <v>1</v>
       </c>
@@ -3227,7 +3401,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="6">
         <v>2</v>
       </c>
@@ -3236,7 +3410,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="15">
         <v>1</v>
       </c>
       <c r="B12" s="4"/>
@@ -3251,7 +3425,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -3260,7 +3434,7 @@
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -3269,7 +3443,7 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -3278,7 +3452,7 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="14">
         <v>2</v>
       </c>
       <c r="B16" s="5"/>
@@ -3293,7 +3467,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="6">
         <v>0</v>
       </c>
@@ -3302,7 +3476,7 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="6">
         <v>1</v>
       </c>
@@ -3311,7 +3485,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="6">
         <v>2</v>
       </c>
@@ -3334,7 +3508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -3373,9 +3547,9 @@
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3384,9 +3558,9 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3395,49 +3569,49 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/docs/class_2702.xlsx
+++ b/docs/class_2702.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Plan5" sheetId="6" r:id="rId6"/>
     <sheet name="Plan6" sheetId="7" r:id="rId7"/>
     <sheet name="Plan7" sheetId="8" r:id="rId8"/>
+    <sheet name="Plan8" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>endereço de ip</t>
   </si>
@@ -193,13 +194,31 @@
   </si>
   <si>
     <t>href;target;caption</t>
+  </si>
+  <si>
+    <t>stack __autoload</t>
+  </si>
+  <si>
+    <t>é uma tabela</t>
+  </si>
+  <si>
+    <t>cada linha na tabela mapeia uma função que será executada quando eu tentar criar</t>
+  </si>
+  <si>
+    <t>um objeto de uma classe que não foi definida no script em execução</t>
+  </si>
+  <si>
+    <t>loader</t>
+  </si>
+  <si>
+    <t>abacaxi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +228,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -360,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -391,6 +418,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3294,7 +3322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3616,4 +3644,47 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/class_2702.xlsx
+++ b/docs/class_2702.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="1" activeTab="8"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Plan3" sheetId="4" r:id="rId4"/>
     <sheet name="Plan4" sheetId="5" r:id="rId5"/>
     <sheet name="Plan5" sheetId="6" r:id="rId6"/>
-    <sheet name="Plan6" sheetId="7" r:id="rId7"/>
-    <sheet name="Plan7" sheetId="8" r:id="rId8"/>
-    <sheet name="Plan8" sheetId="9" r:id="rId9"/>
+    <sheet name="Plan9" sheetId="10" r:id="rId7"/>
+    <sheet name="Plan6" sheetId="7" r:id="rId8"/>
+    <sheet name="Plan7" sheetId="8" r:id="rId9"/>
+    <sheet name="Plan8" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>endereço de ip</t>
   </si>
@@ -212,6 +213,15 @@
   </si>
   <si>
     <t>abacaxi</t>
+  </si>
+  <si>
+    <t>CONEXÃO COM O BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>ACESSO GENÉRICO ÀS TABELAS</t>
+  </si>
+  <si>
+    <t>ACESSO ESPECIALIZADO A UMA DETERMINADA TABELA</t>
   </si>
 </sst>
 </file>
@@ -403,6 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,7 +429,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2343,6 +2353,366 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="190500"/>
+          <a:ext cx="1314450" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>DATABASE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="3238500"/>
+          <a:ext cx="1314450" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>PRODUCTS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>TABELA PRODUCTS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Retângulo 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="1714500"/>
+          <a:ext cx="1314450" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>DATASET</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>QUALQUER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> TABELA</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="3238500"/>
+          <a:ext cx="1314450" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>SUPPLIERS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector de seta reta 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3000375" y="904875"/>
+          <a:ext cx="9525" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="88900">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector de seta reta 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3009900" y="2428875"/>
+          <a:ext cx="0" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="88900">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2907,6 +3277,49 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E9:E10"/>
@@ -2948,19 +3361,19 @@
   <sheetData>
     <row r="2" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>10</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
       <c r="S5" t="s">
         <v>3</v>
       </c>
@@ -2974,20 +3387,20 @@
     </row>
     <row r="12" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="11">
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="12">
         <v>25</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
       <c r="T13" t="s">
         <v>5</v>
       </c>
@@ -3393,7 +3806,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="15">
         <v>0</v>
       </c>
       <c r="B8" s="5"/>
@@ -3411,7 +3824,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="6">
         <v>0</v>
       </c>
@@ -3420,7 +3833,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="6">
         <v>1</v>
       </c>
@@ -3429,7 +3842,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="6">
         <v>2</v>
       </c>
@@ -3438,7 +3851,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="16">
         <v>1</v>
       </c>
       <c r="B12" s="4"/>
@@ -3453,7 +3866,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -3462,7 +3875,7 @@
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -3471,7 +3884,7 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="3">
         <v>2</v>
       </c>
@@ -3480,7 +3893,7 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="15">
         <v>2</v>
       </c>
       <c r="B16" s="5"/>
@@ -3495,7 +3908,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="6">
         <v>0</v>
       </c>
@@ -3504,7 +3917,7 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="6">
         <v>1</v>
       </c>
@@ -3513,7 +3926,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="6">
         <v>2</v>
       </c>
@@ -3533,6 +3946,47 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H3:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3547,7 +4001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J15"/>
   <sheetViews>
@@ -3644,47 +4098,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>